--- a/src/main/resources/static/templates/值班老师模板.xlsx
+++ b/src/main/resources/static/templates/值班老师模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="14085" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="值班表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">2.按校区年级导值班表. </t>
     </r>
     <r>
@@ -124,8 +131,11 @@
     <t>3.请填写正确的日期，同一日期重复上传会覆盖.注意不要覆盖上一个月的值班信息.</t>
   </si>
   <si>
+    <t>4.请填写正确的日期格式，使用格式刷修改。</t>
+  </si>
+  <si>
     <r>
-      <t>4.请正确填写值班教师姓名，并且不要加星号、空格、制表符等一切符号。如果上传发现老师名称有误，请检查名称拼写或录入该教师信息.
+      <t>5.请正确填写值班教师姓名，并且不要加星号、空格、制表符等一切符号。如果上传发现老师名称有误，请检查名称拼写或录入该教师信息.
   (</t>
     </r>
     <r>
@@ -150,11 +160,11 @@
     </r>
   </si>
   <si>
-    <t>5.可修改第一、第二阶段的起止时间，但不要改变原有格式。</t>
+    <t>6.可修改第一、第二阶段的起止时间，但不要改变原有格式。</t>
   </si>
   <si>
     <r>
-      <t>6.是否假期一列</t>
+      <t>7.是否假期一列</t>
     </r>
     <r>
       <rPr>
@@ -188,14 +198,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,33 +699,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,97 +738,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,10 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1421,13 +1424,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:XFD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1444,12 +1450,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:1">
+    <row r="5" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1459,8 +1465,13 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" s="4" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
@@ -1468,6 +1479,7 @@
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
